--- a/Tecnologia.xlsx
+++ b/Tecnologia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="431">
   <si>
     <t>MongoDB</t>
   </si>
@@ -1308,6 +1308,18 @@
   </si>
   <si>
     <t>jfrog.png</t>
+  </si>
+  <si>
+    <t>Electron.NET API</t>
+  </si>
+  <si>
+    <t>electron.NET.png</t>
+  </si>
+  <si>
+    <t>Coverlet (.NET)</t>
+  </si>
+  <si>
+    <t>coverlet.png</t>
   </si>
 </sst>
 </file>
@@ -1703,44 +1715,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G268"/>
+      <selection activeCell="G6" sqref="G6:G270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" customWidth="1"/>
-    <col min="3" max="3" width="64.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" customWidth="1"/>
-    <col min="7" max="7" width="51.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="G2" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="G3" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G4" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>280</v>
       </c>
@@ -1767,11 +1779,11 @@
         <v>CABECERA</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G69" si="0">IF(E6="CABECERA",CONCATENATE(IF(D6&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D6),""),SUBSTITUTE($G$2,"[CABECERA]",C6)),IF(E6="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D6&lt;&gt;"",D6,"transparent.png")),"[DETALLE]",C6),"[DESCRIPCION]",F6),"[EXPERT]",IF(A6="EXPERT",$G$4,"")),IF(E7&lt;&gt;"DETALLE",$G$5,"")),""))</f>
+        <f t="shared" ref="G6:G70" si="0">IF(E6="CABECERA",CONCATENATE(IF(D6&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D6),""),SUBSTITUTE($G$2,"[CABECERA]",C6)),IF(E6="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D6&lt;&gt;"",D6,"transparent.png")),"[DETALLE]",C6),"[DESCRIPCION]",F6),"[EXPERT]",IF(A6="EXPERT",$G$4,"")),IF(E7&lt;&gt;"DETALLE",$G$5,"")),""))</f>
         <v>&lt;/div&gt;&lt;div id="small-dialog1" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Languages&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>102</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E70" si="1">IF(C7="","",IF(A7="","CABECERA","DETALLE"))</f>
+        <f t="shared" ref="E7:E71" si="1">IF(C7="","",IF(A7="","CABECERA","DETALLE"))</f>
         <v>DETALLE</v>
       </c>
       <c r="G7" t="str">
@@ -1790,7 +1802,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/4gl.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;4gl&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sap.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Abap IV&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/bootstrap.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Bootstrap&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/c.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;C++&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -1866,7 +1878,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/csharp.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;C#&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -1885,7 +1897,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/cobol.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Cobol&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -1904,7 +1916,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/dart.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Dart&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/erlang.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Erlang&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/flutter.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Flutter&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -1961,7 +1973,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/go.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Go&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/groovy.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Groovy / Grails&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/haskell.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Haskell&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -2018,7 +2030,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/html5.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Html5 / CSS3&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -2037,7 +2049,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/java.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Java&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/javascript.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Javascript&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -2075,7 +2087,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jquery.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jquery&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/kotlin.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Kotlin&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -2113,7 +2125,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/oracle.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Oracle PL/SQL&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/pascal.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Pascal&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/ruby.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Ruby / RoR&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -2170,7 +2182,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/php.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;PHP / Laravel / Eloquent / Composer&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/python.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Python / Django&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/ibm.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;RPG&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/scala.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Scala&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/typescript.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;TypeScript&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E32" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2256,7 +2268,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
         <v>247</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>&lt;/div&gt;&lt;div id="small-dialog2" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;.NET&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -2291,7 +2303,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/net.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;NET 7&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/csharp.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;C# / Xaml&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -2329,7 +2341,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/wpf.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;WPF / Windows Forms&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/asp.net.core.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;ASP.NET Core MVC/ Razor pages / Blazor Web Assembly&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -2367,15 +2379,15 @@
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/winui.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;WinUI &lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>427</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>428</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="1"/>
@@ -2383,18 +2395,18 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/entity-framework.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Entity Framework&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/electron.NET.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Electron.NET API&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>384</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
-        <v>418</v>
+        <v>248</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
@@ -2402,18 +2414,18 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/dapper.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Dapper ORM&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/entity-framework.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Entity Framework&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
@@ -2421,18 +2433,18 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/linq.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;LINQ&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/dapper.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Dapper ORM&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="1"/>
@@ -2440,63 +2452,63 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/polly.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Polly.NET&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/linq.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;LINQ&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D43" t="s">
+        <v>420</v>
+      </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>162</v>
-      </c>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/polly.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Polly.NET&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E44" t="str">
         <f t="shared" si="1"/>
-        <v>CABECERA</v>
+        <v/>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog4" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Java Persistence Frameworks&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" t="s">
-        <v>388</v>
-      </c>
-      <c r="D45" t="s">
-        <v>100</v>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/jpa.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Data JPA / Criteria&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog4" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Java Persistence Frameworks&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="1"/>
@@ -2504,18 +2516,18 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/hibernate.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Hibernate / HQL / QueryDSL&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/jpa.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Data JPA / Criteria&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="1"/>
@@ -2523,18 +2535,18 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/mapstruct.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;MapStruct / Mapping Dozer&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/hibernate.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Hibernate / HQL / QueryDSL&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>389</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="1"/>
@@ -2542,63 +2554,63 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/purequery.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;IBM PureQuery&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/mapstruct.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;MapStruct / Mapping Dozer&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" t="s">
+        <v>184</v>
+      </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>163</v>
-      </c>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/purequery.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;IBM PureQuery&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E50" t="str">
         <f t="shared" si="1"/>
-        <v>CABECERA</v>
+        <v/>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog5" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Java AOP Frameworks&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>101</v>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring AOP&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog5" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Java AOP Frameworks&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
@@ -2606,18 +2618,18 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jbossaop.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jboss AOP&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring AOP&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
@@ -2625,60 +2637,60 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/aspectj.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;AspectJ&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jbossaop.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jboss AOP&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C55" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>164</v>
-      </c>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/aspectj.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;AspectJ&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="str">
         <f t="shared" si="1"/>
-        <v>CABECERA</v>
+        <v/>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog6" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Spring Framework&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" t="s">
-        <v>347</v>
-      </c>
-      <c r="D56" t="s">
-        <v>101</v>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Boot&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog6" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Spring Framework&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="D57" t="s">
         <v>101</v>
@@ -2689,15 +2701,15 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring MVC&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Boot&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="D58" t="s">
         <v>101</v>
@@ -2708,15 +2720,15 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Data JPA&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring MVC&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
         <v>101</v>
@@ -2727,15 +2739,15 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Security&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Data JPA&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
         <v>101</v>
@@ -2746,15 +2758,15 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring AOP&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Security&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
         <v>101</v>
@@ -2765,18 +2777,18 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Webflux&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring AOP&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -2784,60 +2796,63 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/thymeleaf.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Thymeleaf&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/spring.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Spring Webflux&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>390</v>
+      </c>
+      <c r="D63" t="s">
+        <v>237</v>
+      </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C64" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>165</v>
-      </c>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/thymeleaf.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Thymeleaf&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E64" t="str">
         <f t="shared" si="1"/>
-        <v>CABECERA</v>
+        <v/>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog7" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Netflix&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" t="s">
-        <v>340</v>
-      </c>
-      <c r="D65" t="s">
-        <v>373</v>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/netflix-hystrix.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Hystrix&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog7" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Netflix&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>392</v>
+        <v>340</v>
+      </c>
+      <c r="D66" t="s">
+        <v>373</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
@@ -2845,18 +2860,15 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/transparent.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Feign&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/netflix-hystrix.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Hystrix&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>341</v>
-      </c>
-      <c r="D67" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
@@ -2864,18 +2876,18 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/netflix-ribbon.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Netflix Ribbon&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/transparent.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Feign&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
@@ -2883,203 +2895,203 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/netflix-zuul.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Netflix Zuul&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/netflix-ribbon.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Netflix Ribbon&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" t="s">
+        <v>372</v>
+      </c>
       <c r="E69" t="str">
-        <f>IF(C69="","",IF(A69="","CABECERA","DETALLE"))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>DETALLE</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C70" s="5" t="s">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/netflix-zuul.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Netflix Zuul&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <f>IF(C70="","",IF(A70="","CABECERA","DETALLE"))</f>
+        <v/>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E71" t="str">
         <f t="shared" si="1"/>
         <v>CABECERA</v>
       </c>
-      <c r="G70" t="str">
-        <f t="shared" ref="G70:G133" si="2">IF(E70="CABECERA",CONCATENATE(IF(D70&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D70),""),SUBSTITUTE($G$2,"[CABECERA]",C70)),IF(E70="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D70&lt;&gt;"",D70,"transparent.png")),"[DETALLE]",C70),"[DESCRIPCION]",F70),"[EXPERT]",IF(A70="EXPERT",$G$4,"")),IF(E71&lt;&gt;"DETALLE",$G$5,"")),""))</f>
+      <c r="G71" t="str">
+        <f t="shared" ref="G71:G134" si="2">IF(E71="CABECERA",CONCATENATE(IF(D71&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D71),""),SUBSTITUTE($G$2,"[CABECERA]",C71)),IF(E71="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D71&lt;&gt;"",D71,"transparent.png")),"[DETALLE]",C71),"[DESCRIPCION]",F71),"[EXPERT]",IF(A71="EXPERT",$G$4,"")),IF(E72&lt;&gt;"DETALLE",$G$5,"")),""))</f>
         <v>&lt;/div&gt;&lt;div id="small-dialog8" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;IDE&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>149</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>142</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>255</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" ref="E71:E73" si="3">IF(C71="","",IF(A71="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G71" t="str">
+      <c r="E72" t="str">
+        <f t="shared" ref="E72:E74" si="3">IF(C72="","",IF(A72="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G72" t="str">
         <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/visual-studio.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Visual Studio&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>149</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>252</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>256</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E73" t="str">
         <f t="shared" si="3"/>
         <v>DETALLE</v>
       </c>
-      <c r="G72" t="str">
+      <c r="G73" t="str">
         <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/visual-code.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Visual Code&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>35</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>253</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E74" t="str">
         <f t="shared" si="3"/>
         <v>DETALLE</v>
       </c>
-      <c r="G73" t="str">
+      <c r="G74" t="str">
         <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/eclipse.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Eclipse&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>149</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>141</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>68</v>
       </c>
-      <c r="E74" t="str">
-        <f>IF(C74="","",IF(A74="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G74" t="str">
+      <c r="E75" t="str">
+        <f>IF(C75="","",IF(A75="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G75" t="str">
         <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/ibmrational.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;IBM Rational &lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" t="s">
         <v>194</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>257</v>
       </c>
-      <c r="E75" t="str">
-        <f t="shared" ref="E75:E76" si="4">IF(C75="","",IF(A75="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G75" t="str">
+      <c r="E76" t="str">
+        <f t="shared" ref="E76:E77" si="4">IF(C76="","",IF(A76="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G76" t="str">
         <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sublime-text.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Sublime Text&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
         <v>193</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>254</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E77" t="str">
         <f t="shared" si="4"/>
         <v>DETALLE</v>
       </c>
-      <c r="G76" t="str">
+      <c r="G77" t="str">
         <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/atom.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Atom&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E77" t="str">
-        <f>IF(C77="","",IF(A77="","CABECERA","DETALLE"))</f>
-        <v/>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>167</v>
-      </c>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E78" t="str">
-        <f t="shared" ref="E78:E82" si="5">IF(C78="","",IF(A78="","CABECERA","DETALLE"))</f>
-        <v>CABECERA</v>
+        <f>IF(C78="","",IF(A78="","CABECERA","DETALLE"))</f>
+        <v/>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog9" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Testing&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79" t="s">
-        <v>264</v>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="5"/>
-        <v>DETALLE</v>
+        <f t="shared" ref="E79:E83" si="5">IF(C79="","",IF(A79="","CABECERA","DETALLE"))</f>
+        <v>CABECERA</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/nunit.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Nunit (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog9" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Testing&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>395</v>
+        <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>424</v>
+        <v>264</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="5"/>
@@ -3087,18 +3099,18 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/xunit.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Xunit (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/nunit.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Nunit (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="5"/>
@@ -3106,18 +3118,18 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/moq.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Moq (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/xunit.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Xunit (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" t="s">
-        <v>397</v>
+        <v>149</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="5"/>
@@ -3125,94 +3137,94 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/rhinomock.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;RhinoMock (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/moq.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Moq (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="E83" t="str">
-        <f>IF(C83="","",IF(A83="","CABECERA","DETALLE"))</f>
+        <f t="shared" si="5"/>
         <v>DETALLE</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/typemock.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;TypeMock (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/rhinomock.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;RhinoMock (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>261</v>
+        <v>150</v>
+      </c>
+      <c r="C84" t="s">
+        <v>398</v>
       </c>
       <c r="D84" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" ref="E84:E93" si="6">IF(C84="","",IF(A84="","CABECERA","DETALLE"))</f>
+        <f>IF(C84="","",IF(A84="","CABECERA","DETALLE"))</f>
         <v>DETALLE</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/junit.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Junit (Java)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/typemock.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;TypeMock (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="D85" t="s">
-        <v>96</v>
+        <v>430</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(C85="","",IF(A85="","CABECERA","DETALLE"))</f>
         <v>DETALLE</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/mockito.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Mockito (Java)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/coverlet.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Coverlet (.NET)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" t="s">
-        <v>400</v>
+        <v>149</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E86:E95" si="6">IF(C86="","",IF(A86="","CABECERA","DETALLE"))</f>
         <v>DETALLE</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/easymock.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;EasyMock (Java)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/junit.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Junit (Java)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="6"/>
@@ -3220,18 +3232,18 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jmock.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jmock ( Java)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/mockito.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Mockito (Java)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="6"/>
@@ -3239,18 +3251,18 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/mocha.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Mocha (js)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/easymock.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;EasyMock (Java)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>260</v>
+        <v>401</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="6"/>
@@ -3258,18 +3270,18 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jasmine.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jasmine (js)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jmock.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jmock ( Java)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>150</v>
       </c>
       <c r="C90" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D90" t="s">
-        <v>336</v>
+        <v>123</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="6"/>
@@ -3277,18 +3289,18 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/protractor.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Protractor (js)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/mocha.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Mocha (js)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>150</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>97</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="6"/>
@@ -3296,18 +3308,18 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/istanbul.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Istanbul (js)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jasmine.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jasmine (js)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>150</v>
       </c>
       <c r="C92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="6"/>
@@ -3315,18 +3327,18 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/karma.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Karma (Browser test runner)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/protractor.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Protractor (js)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
-        <v>394</v>
+        <v>268</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="6"/>
@@ -3334,222 +3346,222 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/selenium.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Selenium for Java and .NET&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/istanbul.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Istanbul (js)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" t="s">
+        <v>266</v>
+      </c>
       <c r="E94" t="str">
-        <f>IF(C94="","",IF(A94="","CABECERA","DETALLE"))</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>DETALLE</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C95" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>168</v>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/karma.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Karma (Browser test runner)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" t="s">
+        <v>394</v>
+      </c>
+      <c r="D95" t="s">
+        <v>126</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" ref="E95:E97" si="7">IF(C95="","",IF(A95="","CABECERA","DETALLE"))</f>
-        <v>CABECERA</v>
+        <f t="shared" si="6"/>
+        <v>DETALLE</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog10" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Node&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" t="s">
-        <v>85</v>
-      </c>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/selenium.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Selenium for Java and .NET&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E96" t="str">
-        <f t="shared" si="7"/>
-        <v>DETALLE</v>
+        <f>IF(C96="","",IF(A96="","CABECERA","DETALLE"))</f>
+        <v/>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/expressjs.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Express.js&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" t="s">
-        <v>281</v>
-      </c>
-      <c r="D97" t="s">
-        <v>86</v>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="7"/>
-        <v>DETALLE</v>
+        <f t="shared" ref="E97:E99" si="7">IF(C97="","",IF(A97="","CABECERA","DETALLE"))</f>
+        <v>CABECERA</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/restify.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Restify.js&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog10" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Node&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>150</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(C98="","",IF(A98="","CABECERA","DETALLE"))</f>
+        <f t="shared" si="7"/>
         <v>DETALLE</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/socketio.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Socket.io&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/expressjs.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Express.js&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>150</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="D99" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" ref="E99:E116" si="8">IF(C99="","",IF(A99="","CABECERA","DETALLE"))</f>
+        <f t="shared" si="7"/>
         <v>DETALLE</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/mongoose.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Mongoose.js&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/restify.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Restify.js&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>150</v>
       </c>
       <c r="C100" t="s">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(C100="","",IF(A100="","CABECERA","DETALLE"))</f>
         <v>DETALLE</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/mongojs.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Mongo.js&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/socketio.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Socket.io&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>150</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>120</v>
       </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E101:E118" si="8">IF(C101="","",IF(A101="","CABECERA","DETALLE"))</f>
         <v>DETALLE</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/npm.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Npm&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/mongoose.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Mongoose.js&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102" t="s">
+        <v>121</v>
+      </c>
       <c r="E102" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C103" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>169</v>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/mongojs.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Mongo.js&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" t="s">
+        <v>282</v>
+      </c>
+      <c r="D103" t="s">
+        <v>88</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="8"/>
-        <v>CABECERA</v>
+        <v>DETALLE</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog11" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;JavaScript MVC Frameworks&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>150</v>
-      </c>
-      <c r="C104" t="s">
-        <v>273</v>
-      </c>
-      <c r="D104" t="s">
-        <v>84</v>
-      </c>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/npm.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Npm&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E104" t="str">
         <f t="shared" si="8"/>
-        <v>DETALLE</v>
+        <v/>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/angular.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Angular / Ionic&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>150</v>
-      </c>
-      <c r="C105" t="s">
-        <v>272</v>
-      </c>
-      <c r="D105" t="s">
-        <v>274</v>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="8"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/react.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;React&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog11" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;JavaScript MVC Frameworks&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="8"/>
@@ -3557,82 +3569,82 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/vue.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Vue&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/angular.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Angular / Ionic&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" t="s">
+        <v>274</v>
+      </c>
       <c r="E107" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C108" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>170</v>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/react.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;React&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" t="s">
+        <v>189</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="8"/>
-        <v>CABECERA</v>
+        <v>DETALLE</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog12" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Web Tools&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" t="s">
-        <v>356</v>
-      </c>
-      <c r="D109" t="s">
-        <v>365</v>
-      </c>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/vue.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Vue&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E109" t="str">
         <f t="shared" si="8"/>
-        <v>DETALLE</v>
+        <v/>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/handlebars.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Handlebars (HTML Template Engine)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" t="s">
-        <v>355</v>
-      </c>
-      <c r="D110" t="s">
-        <v>366</v>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="8"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jade.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jade (HTML Template Engine)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog12" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Web Tools&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>150</v>
       </c>
       <c r="C111" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="D111" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="8"/>
@@ -3640,18 +3652,18 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/alpaca.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Alpaca Forms&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/handlebars.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Handlebars (HTML Template Engine)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>150</v>
       </c>
       <c r="C112" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="8"/>
@@ -3659,18 +3671,18 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/gulp.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Gulp (Javascript task runner)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jade.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jade (HTML Template Engine)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="D113" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="8"/>
@@ -3678,18 +3690,18 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/webpack.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;WebPack&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/alpaca.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Alpaca Forms&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>150</v>
       </c>
       <c r="C114" t="s">
-        <v>155</v>
+        <v>402</v>
       </c>
       <c r="D114" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="8"/>
@@ -3697,18 +3709,18 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/stylus.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Stylus (Preprocessor CSS)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/gulp.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Gulp (Javascript task runner)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="D115" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="8"/>
@@ -3716,18 +3728,18 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sass.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Sass (Preprocessor CSS)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/webpack.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;WebPack&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>150</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="8"/>
@@ -3735,146 +3747,146 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/less.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Less.js (Preprocessor CSS)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/stylus.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Stylus (Preprocessor CSS)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" t="s">
+        <v>115</v>
+      </c>
       <c r="E117" t="str">
-        <f>IF(C117="","",IF(A117="","CABECERA","DETALLE"))</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>DETALLE</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C118" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>171</v>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sass.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Sass (Preprocessor CSS)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>150</v>
+      </c>
+      <c r="C118" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" t="s">
+        <v>116</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" ref="E118:E128" si="9">IF(C118="","",IF(A118="","CABECERA","DETALLE"))</f>
-        <v>CABECERA</v>
+        <f t="shared" si="8"/>
+        <v>DETALLE</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog13" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Project generator&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>150</v>
-      </c>
-      <c r="C119" t="s">
-        <v>404</v>
-      </c>
-      <c r="D119" t="s">
-        <v>231</v>
-      </c>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/less.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Less.js (Preprocessor CSS)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E119" t="str">
-        <f t="shared" si="9"/>
-        <v>DETALLE</v>
+        <f>IF(C119="","",IF(A119="","CABECERA","DETALLE"))</f>
+        <v/>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/yeoman.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;YeoMan&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>150</v>
-      </c>
-      <c r="C120" t="s">
-        <v>405</v>
-      </c>
-      <c r="D120" t="s">
-        <v>406</v>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="9"/>
-        <v>DETALLE</v>
+        <f t="shared" ref="E120:E130" si="9">IF(C120="","",IF(A120="","CABECERA","DETALLE"))</f>
+        <v>CABECERA</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/h5bt.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;HTML5 Boilerplate&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog13" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Project generator&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" t="s">
+        <v>404</v>
+      </c>
+      <c r="D121" t="s">
+        <v>231</v>
+      </c>
       <c r="E121" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C122" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>172</v>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/yeoman.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;YeoMan&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>150</v>
+      </c>
+      <c r="C122" t="s">
+        <v>405</v>
+      </c>
+      <c r="D122" t="s">
+        <v>406</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="9"/>
-        <v>CABECERA</v>
+        <v>DETALLE</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog14" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Relational Databases&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>149</v>
-      </c>
-      <c r="C123" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" t="s">
-        <v>76</v>
-      </c>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/h5bt.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;HTML5 Boilerplate&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E123" t="str">
         <f t="shared" si="9"/>
-        <v>DETALLE</v>
+        <v/>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/oracle.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Oracle&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>149</v>
-      </c>
-      <c r="C124" t="s">
-        <v>285</v>
-      </c>
-      <c r="D124" t="s">
-        <v>78</v>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="9"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/sqlserver.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;SQL Server&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;/div&gt;&lt;div id="small-dialog14" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Relational Databases&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="9"/>
@@ -3882,18 +3894,18 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/mysql.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;MySql&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/oracle.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Oracle&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
+        <v>285</v>
       </c>
       <c r="D126" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="9"/>
@@ -3901,18 +3913,18 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/mariadb.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;MariaDB&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/sqlserver.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;SQL Server&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D127" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="9"/>
@@ -3920,18 +3932,18 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/postgres.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Postgres&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/mysql.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;MySql&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>149</v>
       </c>
       <c r="C128" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="9"/>
@@ -3939,94 +3951,94 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/db2.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;IBM DB2&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/mariadb.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;MariaDB&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>150</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D129" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E129" t="str">
-        <f>IF(C129="","",IF(A129="","CABECERA","DETALLE"))</f>
+        <f t="shared" si="9"/>
         <v>DETALLE</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/informix.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Informix Dynamic Server&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/postgres.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Postgres&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>149</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D130" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E193" si="10">IF(C130="","",IF(A130="","CABECERA","DETALLE"))</f>
+        <f t="shared" si="9"/>
         <v>DETALLE</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/ingres.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;CA Ingres  &lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/db2.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;IBM DB2&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>150</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(C131="","",IF(A131="","CABECERA","DETALLE"))</f>
         <v>DETALLE</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/cache.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Intersystems Cache&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/informix.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Informix Dynamic Server&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="D132" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E132:E195" si="10">IF(C132="","",IF(A132="","CABECERA","DETALLE"))</f>
         <v>DETALLE</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sybase.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Sap Sybase&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/ingres.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;CA Ingres  &lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>150</v>
       </c>
       <c r="C133" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>286</v>
+        <v>421</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="10"/>
@@ -4034,2131 +4046,2169 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sqlite.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;SQLite&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/cache.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Intersystems Cache&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" t="s">
+        <v>111</v>
+      </c>
       <c r="E134" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" ref="G134:G197" si="11">IF(E134="CABECERA",CONCATENATE(IF(D134&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D134),""),SUBSTITUTE($G$2,"[CABECERA]",C134)),IF(E134="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D134&lt;&gt;"",D134,"transparent.png")),"[DETALLE]",C134),"[DESCRIPCION]",F134),"[EXPERT]",IF(A134="EXPERT",$G$4,"")),IF(E135&lt;&gt;"DETALLE",$G$5,"")),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C135" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>173</v>
+        <f t="shared" si="2"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sybase.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Sap Sybase&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" t="s">
+        <v>195</v>
+      </c>
+      <c r="D135" t="s">
+        <v>286</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="10"/>
+        <v>DETALLE</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" ref="G135:G198" si="11">IF(E135="CABECERA",CONCATENATE(IF(D135&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D135),""),SUBSTITUTE($G$2,"[CABECERA]",C135)),IF(E135="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D135&lt;&gt;"",D135,"transparent.png")),"[DETALLE]",C135),"[DESCRIPCION]",F135),"[EXPERT]",IF(A135="EXPERT",$G$4,"")),IF(E136&lt;&gt;"DETALLE",$G$5,"")),""))</f>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sqlite.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;SQLite&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E136" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="10"/>
         <v>CABECERA</v>
       </c>
-      <c r="G135" t="str">
+      <c r="G137" t="str">
         <f t="shared" si="11"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog15" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;NoSQL Databases&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>150</v>
-      </c>
-      <c r="C136" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" t="s">
         <v>0</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D138" t="s">
         <v>89</v>
       </c>
-      <c r="E136" t="str">
+      <c r="E138" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G136" t="str">
+      <c r="G138" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/mongodb.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;MongoDB&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>150</v>
-      </c>
-      <c r="C137" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" t="s">
         <v>133</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D139" t="s">
         <v>134</v>
       </c>
-      <c r="E137" t="str">
+      <c r="E139" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G137" t="str">
+      <c r="G139" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/cassandra.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Apache Cassandra&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>150</v>
-      </c>
-      <c r="C138" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" t="s">
         <v>12</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D140" t="s">
         <v>90</v>
       </c>
-      <c r="E138" t="str">
+      <c r="E140" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G138" t="str">
+      <c r="G140" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/redis.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Redis&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>150</v>
-      </c>
-      <c r="C139" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" t="s">
         <v>234</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D141" t="s">
         <v>91</v>
       </c>
-      <c r="E139" t="str">
+      <c r="E141" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G139" t="str">
+      <c r="G141" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/memcached.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Memcached&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E140" t="str">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E142" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G140" t="str">
+      <c r="G142" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C141" s="5" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C143" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E141" t="str">
+      <c r="E143" t="str">
         <f t="shared" si="10"/>
         <v>CABECERA</v>
       </c>
-      <c r="G141" t="str">
+      <c r="G143" t="str">
         <f t="shared" si="11"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog16" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Big Data / BI&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>150</v>
-      </c>
-      <c r="C142" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144" t="s">
         <v>40</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D144" t="s">
         <v>79</v>
       </c>
-      <c r="E142" t="str">
+      <c r="E144" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G142" t="str">
+      <c r="G144" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/cognos.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Ibm Cognos&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>150</v>
-      </c>
-      <c r="C143" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" t="s">
         <v>15</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D145" t="s">
         <v>80</v>
       </c>
-      <c r="E143" t="str">
+      <c r="E145" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G143" t="str">
+      <c r="G145" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/talend.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Talend&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E144" t="str">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E146" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G144" t="str">
+      <c r="G146" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C145" s="5" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C147" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D147" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E145" t="str">
+      <c r="E147" t="str">
         <f t="shared" si="10"/>
         <v>CABECERA</v>
       </c>
-      <c r="G145" t="str">
+      <c r="G147" t="str">
         <f t="shared" si="11"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog17" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Cloud Computing&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>150</v>
-      </c>
-      <c r="C146" s="1" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D148" t="s">
         <v>330</v>
       </c>
-      <c r="E146" t="str">
+      <c r="E148" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G146" t="str">
+      <c r="G148" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/azure.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Windows Azure&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>150</v>
-      </c>
-      <c r="C147" s="1" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D149" t="s">
         <v>422</v>
       </c>
-      <c r="E147" t="str">
+      <c r="E149" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G147" t="str">
+      <c r="G149" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/aws.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;AWS&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>150</v>
-      </c>
-      <c r="C148" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
         <v>408</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D150" t="s">
         <v>290</v>
       </c>
-      <c r="E148" t="str">
+      <c r="E150" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G148" t="str">
+      <c r="G150" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/google-cloud.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;GCP -Google Cloud Platform&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="C149" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
         <v>206</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D151" t="s">
         <v>227</v>
       </c>
-      <c r="E149" t="str">
+      <c r="E151" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G149" t="str">
+      <c r="G151" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/google-firebase.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Google Firebase&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="C150" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
         <v>196</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D152" t="s">
         <v>93</v>
       </c>
-      <c r="E150" t="str">
+      <c r="E152" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G150" t="str">
+      <c r="G152" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/heroku.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Heroku&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-      <c r="C151" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" t="s">
         <v>197</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D153" t="s">
         <v>94</v>
       </c>
-      <c r="E151" t="str">
+      <c r="E153" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G151" t="str">
+      <c r="G153" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/nodester.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Nodester&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E152" t="str">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E154" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G152" t="str">
+      <c r="G154" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C153" s="5" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C155" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D155" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E153" t="str">
+      <c r="E155" t="str">
         <f t="shared" si="10"/>
         <v>CABECERA</v>
       </c>
-      <c r="G153" t="str">
+      <c r="G155" t="str">
         <f t="shared" si="11"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog18" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Environment / OS&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>150</v>
-      </c>
-      <c r="C154" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>150</v>
+      </c>
+      <c r="C156" t="s">
         <v>291</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D156" t="s">
         <v>63</v>
       </c>
-      <c r="E154" t="str">
+      <c r="E156" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G154" t="str">
+      <c r="G156" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/windows.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Windows&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>150</v>
-      </c>
-      <c r="C155" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" t="s">
         <v>292</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D157" t="s">
         <v>293</v>
       </c>
-      <c r="E155" t="str">
+      <c r="E157" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G155" t="str">
+      <c r="G157" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/ubuntu.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Ubuntu&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>150</v>
-      </c>
-      <c r="C156" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>150</v>
+      </c>
+      <c r="C158" t="s">
         <v>65</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D158" t="s">
         <v>108</v>
       </c>
-      <c r="E156" t="str">
+      <c r="E158" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G156" t="str">
+      <c r="G158" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/debian.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Debian&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>150</v>
-      </c>
-      <c r="C157" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>150</v>
+      </c>
+      <c r="C159" t="s">
         <v>294</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D159" t="s">
         <v>140</v>
       </c>
-      <c r="E157" t="str">
+      <c r="E159" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G157" t="str">
+      <c r="G159" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/redhat.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Red Hat&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>150</v>
-      </c>
-      <c r="C158" t="s">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>150</v>
+      </c>
+      <c r="C160" t="s">
         <v>295</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D160" t="s">
         <v>66</v>
       </c>
-      <c r="E158" t="str">
+      <c r="E160" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G158" t="str">
+      <c r="G160" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/suse.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Suse&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>150</v>
-      </c>
-      <c r="C159" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>150</v>
+      </c>
+      <c r="C161" t="s">
         <v>64</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D161" t="s">
         <v>67</v>
       </c>
-      <c r="E159" t="str">
+      <c r="E161" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G159" t="str">
+      <c r="G161" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/aix.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;IBM Aix&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>150</v>
-      </c>
-      <c r="C160" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>150</v>
+      </c>
+      <c r="C162" t="s">
         <v>9</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D162" t="s">
         <v>283</v>
       </c>
-      <c r="E160" t="str">
+      <c r="E162" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G160" t="str">
+      <c r="G162" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/as400.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;AS/400&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>150</v>
-      </c>
-      <c r="C161" t="s">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>150</v>
+      </c>
+      <c r="C163" t="s">
         <v>11</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D163" t="s">
         <v>47</v>
       </c>
-      <c r="E161" t="str">
+      <c r="E163" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G161" t="str">
+      <c r="G163" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sap.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;SAP R/3&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E162" t="str">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E164" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G162" t="str">
+      <c r="G164" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C163" s="5" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C165" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D165" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E163" t="str">
+      <c r="E165" t="str">
         <f t="shared" si="10"/>
         <v>CABECERA</v>
       </c>
-      <c r="G163" t="str">
+      <c r="G165" t="str">
         <f t="shared" si="11"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog19" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Application Servers&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>150</v>
-      </c>
-      <c r="C164" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>150</v>
+      </c>
+      <c r="C166" t="s">
         <v>30</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D166" t="s">
         <v>51</v>
       </c>
-      <c r="E164" t="str">
+      <c r="E166" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G164" t="str">
+      <c r="G166" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/iis.gif" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;IIS &lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>150</v>
-      </c>
-      <c r="C165" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>150</v>
+      </c>
+      <c r="C167" t="s">
         <v>16</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D167" t="s">
         <v>329</v>
       </c>
-      <c r="E165" t="str">
+      <c r="E167" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G165" t="str">
+      <c r="G167" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/apache-tomcat.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Apache Tomcat&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>150</v>
-      </c>
-      <c r="C166" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>150</v>
+      </c>
+      <c r="C168" t="s">
         <v>296</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D168" t="s">
         <v>52</v>
       </c>
-      <c r="E166" t="str">
+      <c r="E168" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G166" t="str">
+      <c r="G168" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jboss.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Wilfly / Jboss&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>150</v>
-      </c>
-      <c r="C167" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>150</v>
+      </c>
+      <c r="C169" t="s">
         <v>17</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D169" t="s">
         <v>136</v>
       </c>
-      <c r="E167" t="str">
+      <c r="E169" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G167" t="str">
+      <c r="G169" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/websphere.gif" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;IBM Websphere&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>150</v>
-      </c>
-      <c r="C168" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>150</v>
+      </c>
+      <c r="C170" t="s">
         <v>41</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D170" t="s">
         <v>135</v>
       </c>
-      <c r="E168" t="str">
+      <c r="E170" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G168" t="str">
+      <c r="G170" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/weblogic.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Oracle WebLogic&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>150</v>
-      </c>
-      <c r="C169" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171" t="s">
         <v>2</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D171" t="s">
         <v>113</v>
       </c>
-      <c r="E169" t="str">
+      <c r="E171" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G169" t="str">
+      <c r="G171" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jetty.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jetty&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>150</v>
-      </c>
-      <c r="C170" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>150</v>
+      </c>
+      <c r="C172" t="s">
         <v>14</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D172" t="s">
         <v>114</v>
       </c>
-      <c r="E170" t="str">
+      <c r="E172" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G170" t="str">
+      <c r="G172" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/nginx.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Nginx&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E171" t="str">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E173" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G171" t="str">
+      <c r="G173" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C172" s="5" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C174" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D174" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E172" t="str">
+      <c r="E174" t="str">
         <f t="shared" si="10"/>
         <v>CABECERA</v>
       </c>
-      <c r="G172" t="str">
+      <c r="G174" t="str">
         <f t="shared" si="11"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog20" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Integrations / Protocols&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>149</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C175" t="s">
         <v>54</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D175" t="s">
         <v>284</v>
       </c>
-      <c r="E173" t="str">
+      <c r="E175" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G173" t="str">
+      <c r="G175" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/astm.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;ASTM Protocol&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>149</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C176" t="s">
         <v>55</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D176" t="s">
         <v>56</v>
       </c>
-      <c r="E174" t="str">
+      <c r="E176" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G174" t="str">
+      <c r="G176" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/hl7.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;HL7 Protocol&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>149</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C177" t="s">
         <v>297</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D177" t="s">
         <v>298</v>
       </c>
-      <c r="E175" t="str">
+      <c r="E177" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G175" t="str">
+      <c r="G177" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/caen-rfid.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Caen RFID Protocol&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>149</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C178" t="s">
         <v>301</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D178" t="s">
         <v>302</v>
       </c>
-      <c r="E176" t="str">
+      <c r="E178" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G176" t="str">
+      <c r="G178" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/apache-cxf.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Apache CXF&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>149</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C179" t="s">
         <v>57</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D179" t="s">
         <v>105</v>
       </c>
-      <c r="E177" t="str">
+      <c r="E179" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G177" t="str">
+      <c r="G179" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/axis2.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Apache Axis2&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>149</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C180" t="s">
         <v>299</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D180" t="s">
         <v>300</v>
       </c>
-      <c r="E178" t="str">
+      <c r="E180" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G178" t="str">
+      <c r="G180" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/jersey.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jersey &lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>150</v>
-      </c>
-      <c r="C179" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>150</v>
+      </c>
+      <c r="C181" t="s">
         <v>204</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D181" t="s">
         <v>224</v>
       </c>
-      <c r="E179" t="str">
+      <c r="E181" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G179" t="str">
+      <c r="G181" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/graphql.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;GraphQL&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>149</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C182" t="s">
         <v>8</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D182" t="s">
         <v>53</v>
       </c>
-      <c r="E180" t="str">
+      <c r="E182" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G180" t="str">
+      <c r="G182" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/mirth.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Mirth&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>150</v>
-      </c>
-      <c r="C181" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" t="s">
         <v>34</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D183" t="s">
         <v>104</v>
       </c>
-      <c r="E181" t="str">
+      <c r="E183" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G181" t="str">
+      <c r="G183" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/symphonia.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Symphonia&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E182" t="str">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E184" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G182" t="str">
+      <c r="G184" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C183" s="5" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C185" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D185" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E183" t="str">
+      <c r="E185" t="str">
         <f t="shared" si="10"/>
         <v>CABECERA</v>
       </c>
-      <c r="G183" t="str">
+      <c r="G185" t="str">
         <f t="shared" si="11"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog21" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Methodologies &amp; Specifications&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>150</v>
-      </c>
-      <c r="C184" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>150</v>
+      </c>
+      <c r="C186" t="s">
         <v>60</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D186" t="s">
         <v>61</v>
       </c>
-      <c r="E184" t="str">
+      <c r="E186" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G184" t="str">
+      <c r="G186" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/scrum.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Scrum&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>150</v>
-      </c>
-      <c r="C185" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>150</v>
+      </c>
+      <c r="C187" t="s">
         <v>303</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D187" t="s">
         <v>334</v>
       </c>
-      <c r="E185" t="str">
+      <c r="E187" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G185" t="str">
+      <c r="G187" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/kanban.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Kanban&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>149</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C188" t="s">
         <v>304</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D188" t="s">
         <v>305</v>
       </c>
-      <c r="E186" t="str">
+      <c r="E188" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G186" t="str">
+      <c r="G188" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/clean-code.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Clean code&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>149</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C189" t="s">
         <v>306</v>
       </c>
-      <c r="E187" t="str">
+      <c r="E189" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G187" t="str">
+      <c r="G189" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/transparent.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;SOLID Principles&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>149</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C190" t="s">
         <v>31</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D190" t="s">
         <v>106</v>
       </c>
-      <c r="E188" t="str">
+      <c r="E190" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G188" t="str">
+      <c r="G190" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/gofpatterns.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;GOF Patterns&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>150</v>
-      </c>
-      <c r="C189" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>150</v>
+      </c>
+      <c r="C191" t="s">
         <v>307</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D191" t="s">
         <v>107</v>
       </c>
-      <c r="E189" t="str">
+      <c r="E191" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G189" t="str">
+      <c r="G191" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/drivendesign.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;DDD / TDD / BDD&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>150</v>
-      </c>
-      <c r="C190" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>150</v>
+      </c>
+      <c r="C192" t="s">
         <v>20</v>
       </c>
-      <c r="E190" t="str">
+      <c r="E192" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G190" t="str">
+      <c r="G192" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/transparent.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;UX (User Experience)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>150</v>
-      </c>
-      <c r="C191" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>150</v>
+      </c>
+      <c r="C193" t="s">
         <v>198</v>
       </c>
-      <c r="E191" t="str">
+      <c r="E193" t="str">
         <f t="shared" si="10"/>
         <v>DETALLE</v>
       </c>
-      <c r="G191" t="str">
+      <c r="G193" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/transparent.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Reactive Programming&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E192" t="str">
-        <f>IF(C192="","",IF(A192="","CABECERA","DETALLE"))</f>
-        <v/>
-      </c>
-      <c r="G192" t="str">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E194" t="str">
+        <f>IF(C194="","",IF(A194="","CABECERA","DETALLE"))</f>
+        <v/>
+      </c>
+      <c r="G194" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C193" s="5" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C195" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D195" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E193" t="str">
+      <c r="E195" t="str">
         <f t="shared" si="10"/>
         <v>CABECERA</v>
       </c>
-      <c r="G193" t="str">
+      <c r="G195" t="str">
         <f t="shared" si="11"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog22" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;CI/CD&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>149</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C196" t="s">
         <v>412</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E194" t="str">
-        <f t="shared" ref="E194:E196" si="12">IF(C194="","",IF(A194="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G194" t="str">
+      <c r="E196" t="str">
+        <f t="shared" ref="E196:E198" si="12">IF(C196="","",IF(A196="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G196" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/azure-devops.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Azure Devops&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>150</v>
-      </c>
-      <c r="C195" s="9" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>150</v>
+      </c>
+      <c r="C197" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D197" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E195" t="str">
+      <c r="E197" t="str">
         <f t="shared" si="12"/>
         <v>DETALLE</v>
       </c>
-      <c r="G195" t="str">
+      <c r="G197" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jira.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Attlassian Jira&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>149</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C198" t="s">
         <v>308</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D198" t="s">
         <v>310</v>
       </c>
-      <c r="E196" t="str">
+      <c r="E198" t="str">
         <f t="shared" si="12"/>
         <v>DETALLE</v>
       </c>
-      <c r="G196" t="str">
+      <c r="G198" t="str">
         <f t="shared" si="11"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;div class="expert"&gt;&lt;/div&gt;&lt;img src="web/images/logos/maven.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Maven&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>150</v>
-      </c>
-      <c r="C197" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>150</v>
+      </c>
+      <c r="C199" t="s">
         <v>309</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E197" t="str">
-        <f>IF(C197="","",IF(A197="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G197" t="str">
-        <f t="shared" si="11"/>
+      <c r="E199" t="str">
+        <f>IF(C199="","",IF(A199="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" ref="G199:G262" si="13">IF(E199="CABECERA",CONCATENATE(IF(D199&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D199),""),SUBSTITUTE($G$2,"[CABECERA]",C199)),IF(E199="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D199&lt;&gt;"",D199,"transparent.png")),"[DETALLE]",C199),"[DESCRIPCION]",F199),"[EXPERT]",IF(A199="EXPERT",$G$4,"")),IF(E200&lt;&gt;"DETALLE",$G$5,"")),""))</f>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/gradle.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Gradle&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B198" s="8"/>
-      <c r="C198" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B200" s="8"/>
+      <c r="C200" t="s">
         <v>45</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D200" t="s">
         <v>81</v>
       </c>
-      <c r="E198" t="str">
-        <f t="shared" ref="E198:E199" si="13">IF(C198="","",IF(A198="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G198" t="str">
-        <f t="shared" ref="G198:G261" si="14">IF(E198="CABECERA",CONCATENATE(IF(D198&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D198),""),SUBSTITUTE($G$2,"[CABECERA]",C198)),IF(E198="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D198&lt;&gt;"",D198,"transparent.png")),"[DETALLE]",C198),"[DESCRIPCION]",F198),"[EXPERT]",IF(A198="EXPERT",$G$4,"")),IF(E199&lt;&gt;"DETALLE",$G$5,"")),""))</f>
+      <c r="E200" t="str">
+        <f t="shared" ref="E200:E201" si="14">IF(C200="","",IF(A200="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jenkins.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt; Jenkins&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B199" s="8"/>
-      <c r="C199" s="9" t="s">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B201" s="8"/>
+      <c r="C201" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D201" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E199" t="str">
+      <c r="E201" t="str">
+        <f t="shared" si="14"/>
+        <v>DETALLE</v>
+      </c>
+      <c r="G201" t="str">
         <f t="shared" si="13"/>
-        <v>DETALLE</v>
-      </c>
-      <c r="G199" t="str">
-        <f t="shared" si="14"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/sonar.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Sonar Qube&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8" t="s">
+    <row r="202" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D202" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E200" t="str">
-        <f>IF(C200="","",IF(A200="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G200" t="str">
-        <f t="shared" si="14"/>
+      <c r="E202" t="str">
+        <f>IF(C202="","",IF(A202="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/nexus-oss.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Nexus OSS&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B201" s="8"/>
-      <c r="C201" s="7" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B203" s="8"/>
+      <c r="C203" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D203" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="E201" t="str">
-        <f t="shared" ref="E201:E205" si="15">IF(C201="","",IF(A201="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G201" t="str">
-        <f t="shared" si="14"/>
+      <c r="E203" t="str">
+        <f t="shared" ref="E203:E207" si="15">IF(C203="","",IF(A203="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/jfrog.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Jfrog&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" t="str">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="G202" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C203" s="5" t="s">
+      <c r="G204" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C205" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D203" s="4" t="s">
+      <c r="D205" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E203" t="str">
+      <c r="E205" t="str">
         <f t="shared" si="15"/>
         <v>CABECERA</v>
       </c>
-      <c r="G203" t="str">
-        <f t="shared" si="14"/>
+      <c r="G205" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog23" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Source Version&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>150</v>
-      </c>
-      <c r="C204" t="s">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>150</v>
+      </c>
+      <c r="C206" t="s">
         <v>413</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D206" t="s">
         <v>229</v>
       </c>
-      <c r="E204" t="str">
+      <c r="E206" t="str">
         <f t="shared" si="15"/>
         <v>DETALLE</v>
       </c>
-      <c r="G204" t="str">
-        <f t="shared" si="14"/>
+      <c r="G206" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/git.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Git / Github&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>150</v>
-      </c>
-      <c r="C205" t="s">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>150</v>
+      </c>
+      <c r="C207" t="s">
         <v>230</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D207" t="s">
         <v>122</v>
       </c>
-      <c r="E205" t="str">
+      <c r="E207" t="str">
         <f t="shared" si="15"/>
         <v>DETALLE</v>
       </c>
-      <c r="G205" t="str">
-        <f t="shared" si="14"/>
+      <c r="G207" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/cvs.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;CVS&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>150</v>
-      </c>
-      <c r="C206" t="s">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>150</v>
+      </c>
+      <c r="C208" t="s">
         <v>69</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D208" t="s">
         <v>70</v>
       </c>
-      <c r="E206" t="str">
-        <f>IF(C206="","",IF(A206="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G206" t="str">
-        <f t="shared" si="14"/>
+      <c r="E208" t="str">
+        <f>IF(C208="","",IF(A208="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/subversion.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Subversion&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>150</v>
-      </c>
-      <c r="C207" t="s">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>150</v>
+      </c>
+      <c r="C209" t="s">
         <v>110</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D209" t="s">
         <v>109</v>
       </c>
-      <c r="E207" t="str">
-        <f t="shared" ref="E207:E216" si="16">IF(C207="","",IF(A207="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G207" t="str">
-        <f t="shared" si="14"/>
+      <c r="E209" t="str">
+        <f t="shared" ref="E209:E218" si="16">IF(C209="","",IF(A209="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/clearcase.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;IBM Rational ClearCase&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E208" t="str">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E210" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G208" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C209" s="5" t="s">
+      <c r="G210" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C211" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D211" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E209" t="str">
+      <c r="E211" t="str">
         <f t="shared" si="16"/>
         <v>CABECERA</v>
       </c>
-      <c r="G209" t="str">
-        <f t="shared" si="14"/>
+      <c r="G211" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog24" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Project Tools&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B210" s="9"/>
-      <c r="C210" s="9" t="s">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B212" s="9"/>
+      <c r="C212" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D210" s="9" t="s">
+      <c r="D212" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E210" t="str">
-        <f t="shared" si="16"/>
-        <v>DETALLE</v>
-      </c>
-      <c r="G210" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/ea.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Enterprise Architect&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E211" t="str">
-        <f t="shared" si="16"/>
-        <v>DETALLE</v>
-      </c>
-      <c r="G211" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/staruml.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;StarUML&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E212" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G212" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C213" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>287</v>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/ea.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Enterprise Architect&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B213" s="9"/>
+      <c r="C213" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="16"/>
-        <v>CABECERA</v>
+        <v>DETALLE</v>
       </c>
       <c r="G213" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog25" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Containers / Orchestration / Virtualization&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>222</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/staruml.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;StarUML&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E214" t="str">
         <f t="shared" si="16"/>
-        <v>DETALLE</v>
+        <v/>
       </c>
       <c r="G214" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/docker.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Docker&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D215" s="9" t="s">
-        <v>223</v>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C215" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="16"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G215" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/kubernetes.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Kubernetes&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>&lt;/div&gt;&lt;div id="small-dialog25" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Containers / Orchestration / Virtualization&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>317</v>
+        <v>201</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="16"/>
         <v>DETALLE</v>
       </c>
       <c r="G216" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/docker.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Docker&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="16"/>
+        <v>DETALLE</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/kubernetes.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Kubernetes&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="16"/>
+        <v>DETALLE</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/vagrant.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Vagrant&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C217" s="9" t="s">
+    <row r="219" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C219" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="D219" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E217" t="str">
-        <f>IF(C217="","",IF(A217="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G217" t="str">
-        <f t="shared" si="14"/>
+      <c r="E219" t="str">
+        <f>IF(C219="","",IF(A219="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/vmware.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;VMWare&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C218" s="9" t="s">
+    <row r="220" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C220" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="D220" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E218" t="str">
-        <f t="shared" ref="E218:E220" si="17">IF(C218="","",IF(A218="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G218" t="str">
-        <f t="shared" si="14"/>
+      <c r="E220" t="str">
+        <f t="shared" ref="E220:E222" si="17">IF(C220="","",IF(A220="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/virtual-box.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Oracle VirtualBox&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E219" t="str">
+    <row r="221" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E221" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G219" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C220" s="5" t="s">
+      <c r="G221" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C222" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D220" s="4" t="s">
+      <c r="D222" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E220" t="str">
+      <c r="E222" t="str">
         <f t="shared" si="17"/>
         <v>CABECERA</v>
       </c>
-      <c r="G220" t="str">
-        <f t="shared" si="14"/>
+      <c r="G222" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog26" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Recognition Applications&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>150</v>
-      </c>
-      <c r="C221" t="s">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>150</v>
+      </c>
+      <c r="C223" t="s">
         <v>32</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D223" t="s">
         <v>374</v>
       </c>
-      <c r="E221" t="str">
-        <f>IF(C221="","",IF(A221="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G221" t="str">
-        <f t="shared" si="14"/>
+      <c r="E223" t="str">
+        <f>IF(C223="","",IF(A223="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/abbyy.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Abbyy Technology&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>150</v>
-      </c>
-      <c r="C222" t="s">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>150</v>
+      </c>
+      <c r="C224" t="s">
         <v>33</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D224" t="s">
         <v>62</v>
       </c>
-      <c r="E222" t="str">
-        <f t="shared" ref="E222:E239" si="18">IF(C222="","",IF(A222="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G222" t="str">
-        <f t="shared" si="14"/>
+      <c r="E224" t="str">
+        <f t="shared" ref="E224:E241" si="18">IF(C224="","",IF(A224="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/cvb.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Infaimon Common Vision Blox&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E223" t="str">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E225" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="G223" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C224" s="5" t="s">
+      <c r="G225" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C226" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D224" s="4" t="s">
+      <c r="D226" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E224" t="str">
+      <c r="E226" t="str">
         <f t="shared" si="18"/>
         <v>CABECERA</v>
       </c>
-      <c r="G224" t="str">
-        <f t="shared" si="14"/>
+      <c r="G226" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog27" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;OpenSource Applications&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>150</v>
-      </c>
-      <c r="C225" t="s">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>150</v>
+      </c>
+      <c r="C227" t="s">
         <v>146</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D227" t="s">
         <v>131</v>
-      </c>
-      <c r="E225" t="str">
-        <f t="shared" si="18"/>
-        <v>DETALLE</v>
-      </c>
-      <c r="G225" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/wordpress.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Wordpress&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>150</v>
-      </c>
-      <c r="C226" t="s">
-        <v>145</v>
-      </c>
-      <c r="D226" t="s">
-        <v>333</v>
-      </c>
-      <c r="E226" t="str">
-        <f t="shared" si="18"/>
-        <v>DETALLE</v>
-      </c>
-      <c r="G226" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/joomla.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Joomla&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>150</v>
-      </c>
-      <c r="C227" t="s">
-        <v>147</v>
-      </c>
-      <c r="D227" t="s">
-        <v>132</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="18"/>
         <v>DETALLE</v>
       </c>
       <c r="G227" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/oscommerce.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;OsCommerce&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/wordpress.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Wordpress&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>150</v>
+      </c>
+      <c r="C228" t="s">
+        <v>145</v>
+      </c>
+      <c r="D228" t="s">
+        <v>333</v>
+      </c>
       <c r="E228" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G228" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C229" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>363</v>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/joomla.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Joomla&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>150</v>
+      </c>
+      <c r="C229" t="s">
+        <v>147</v>
+      </c>
+      <c r="D229" t="s">
+        <v>132</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="18"/>
-        <v>CABECERA</v>
+        <v>DETALLE</v>
       </c>
       <c r="G229" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog28" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Internet of Things&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>150</v>
-      </c>
-      <c r="C230" t="s">
-        <v>323</v>
-      </c>
-      <c r="D230" t="s">
-        <v>324</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/oscommerce.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;OsCommerce&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E230" t="str">
         <f t="shared" si="18"/>
-        <v>DETALLE</v>
+        <v/>
       </c>
       <c r="G230" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/arduino.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Arduino&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C231" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="E231" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>CABECERA</v>
       </c>
       <c r="G231" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C232" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>367</v>
+        <f t="shared" si="13"/>
+        <v>&lt;/div&gt;&lt;div id="small-dialog28" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Internet of Things&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>150</v>
+      </c>
+      <c r="C232" t="s">
+        <v>323</v>
+      </c>
+      <c r="D232" t="s">
+        <v>324</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="18"/>
-        <v>CABECERA</v>
+        <v>DETALLE</v>
       </c>
       <c r="G232" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog29" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Blockchain&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>150</v>
-      </c>
-      <c r="C233" t="s">
-        <v>208</v>
-      </c>
-      <c r="D233" t="s">
-        <v>221</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/arduino.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Arduino&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E233" t="str">
         <f t="shared" si="18"/>
-        <v>DETALLE</v>
+        <v/>
       </c>
       <c r="G233" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/solidity.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Solidity&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>150</v>
-      </c>
-      <c r="C234" t="s">
-        <v>211</v>
-      </c>
-      <c r="D234" t="s">
-        <v>232</v>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C234" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="18"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G234" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/go-ethereum.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Go Ethereum &amp; Geth (Go lenguage)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>&lt;/div&gt;&lt;div id="small-dialog29" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Blockchain&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>150</v>
       </c>
       <c r="C235" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D235" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E235" t="str">
         <f t="shared" si="18"/>
         <v>DETALLE</v>
       </c>
       <c r="G235" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/parity.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Parity (Rust Language)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/solidity.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Solidity&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>150</v>
       </c>
       <c r="C236" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D236" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="18"/>
         <v>DETALLE</v>
       </c>
       <c r="G236" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/ganache-cli.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Ganache-cli / testrpc&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/go-ethereum.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Go Ethereum &amp; Geth (Go lenguage)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>150</v>
       </c>
       <c r="C237" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D237" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="E237" t="str">
         <f t="shared" si="18"/>
         <v>DETALLE</v>
       </c>
       <c r="G237" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/web3js.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Web3.js &lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/parity.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Parity (Rust Language)&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>150</v>
       </c>
       <c r="C238" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="D238" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="E238" t="str">
         <f t="shared" si="18"/>
         <v>DETALLE</v>
       </c>
       <c r="G238" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/wallets.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Wallets: Mist, Parity, MyEtherWallet, MetaMask&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/ganache-cli.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Ganache-cli / testrpc&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>150</v>
       </c>
       <c r="C239" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D239" t="s">
-        <v>218</v>
+        <v>360</v>
       </c>
       <c r="E239" t="str">
         <f t="shared" si="18"/>
         <v>DETALLE</v>
       </c>
       <c r="G239" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/web3js.jpg" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Web3.js &lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>150</v>
+      </c>
+      <c r="C240" t="s">
+        <v>325</v>
+      </c>
+      <c r="D240" t="s">
+        <v>361</v>
+      </c>
+      <c r="E240" t="str">
+        <f t="shared" si="18"/>
+        <v>DETALLE</v>
+      </c>
+      <c r="G240" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/wallets.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Wallets: Mist, Parity, MyEtherWallet, MetaMask&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>150</v>
+      </c>
+      <c r="C241" t="s">
+        <v>213</v>
+      </c>
+      <c r="D241" t="s">
+        <v>218</v>
+      </c>
+      <c r="E241" t="str">
+        <f t="shared" si="18"/>
+        <v>DETALLE</v>
+      </c>
+      <c r="G241" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/truffle.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Truffle&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>150</v>
-      </c>
-      <c r="C240" t="s">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>150</v>
+      </c>
+      <c r="C242" t="s">
         <v>214</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D242" t="s">
         <v>219</v>
       </c>
-      <c r="E240" t="str">
-        <f>IF(C240="","",IF(A240="","CABECERA","DETALLE"))</f>
-        <v>DETALLE</v>
-      </c>
-      <c r="G240" t="str">
-        <f t="shared" si="14"/>
+      <c r="E242" t="str">
+        <f>IF(C242="","",IF(A242="","CABECERA","DETALLE"))</f>
+        <v>DETALLE</v>
+      </c>
+      <c r="G242" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/remix.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Remix&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E241" t="str">
-        <f t="shared" ref="E241:E250" si="19">IF(C241="","",IF(A241="","CABECERA","DETALLE"))</f>
-        <v/>
-      </c>
-      <c r="G241" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C242" s="5" t="s">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E243" t="str">
+        <f t="shared" ref="E243:E252" si="19">IF(C243="","",IF(A243="","CABECERA","DETALLE"))</f>
+        <v/>
+      </c>
+      <c r="G243" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C244" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D242" s="4" t="s">
+      <c r="D244" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E242" t="str">
+      <c r="E244" t="str">
         <f t="shared" si="19"/>
         <v>CABECERA</v>
       </c>
-      <c r="G242" t="str">
-        <f t="shared" si="14"/>
+      <c r="G244" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;/div&gt;&lt;div id="small-dialog30" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Messaging brokers&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>150</v>
-      </c>
-      <c r="C243" t="s">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>150</v>
+      </c>
+      <c r="C245" t="s">
         <v>326</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D245" t="s">
         <v>228</v>
       </c>
-      <c r="E243" t="str">
-        <f t="shared" si="19"/>
-        <v>DETALLE</v>
-      </c>
-      <c r="G243" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/apache-kafka.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Apache Kafka&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>150</v>
-      </c>
-      <c r="C244" t="s">
-        <v>362</v>
-      </c>
-      <c r="D244" t="s">
-        <v>364</v>
-      </c>
-      <c r="E244" t="str">
-        <f t="shared" si="19"/>
-        <v>DETALLE</v>
-      </c>
-      <c r="G244" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/rabbitMQ.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;RabbitMQ&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E245" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>DETALLE</v>
       </c>
       <c r="G245" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C246" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>369</v>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/apache-kafka.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Apache Kafka&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>150</v>
+      </c>
+      <c r="C246" t="s">
+        <v>362</v>
+      </c>
+      <c r="D246" t="s">
+        <v>364</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="19"/>
-        <v>CABECERA</v>
+        <v>DETALLE</v>
       </c>
       <c r="G246" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;/div&gt;&lt;div id="small-dialog31" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Monitoring tools&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>150</v>
-      </c>
-      <c r="C247" t="s">
-        <v>351</v>
-      </c>
-      <c r="D247" t="s">
-        <v>357</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/rabbitMQ.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;RabbitMQ&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E247" t="str">
         <f t="shared" si="19"/>
-        <v>DETALLE</v>
+        <v/>
       </c>
       <c r="G247" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/ansible.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Ansible&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>150</v>
-      </c>
-      <c r="C248" t="s">
-        <v>352</v>
-      </c>
-      <c r="D248" t="s">
-        <v>358</v>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C248" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="19"/>
-        <v>DETALLE</v>
+        <v>CABECERA</v>
       </c>
       <c r="G248" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/chef.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Chef&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>&lt;/div&gt;&lt;div id="small-dialog31" class="mfp-hide container grid" style="background-color: #FFF"&gt;    &lt;h2&gt;Monitoring tools&lt;/h2&gt;&lt;ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>150</v>
       </c>
       <c r="C249" t="s">
-        <v>205</v>
+        <v>351</v>
       </c>
       <c r="D249" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="E249" t="str">
         <f t="shared" si="19"/>
         <v>DETALLE</v>
       </c>
       <c r="G249" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/puppet.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Puppet&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/ansible.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Ansible&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>150</v>
       </c>
       <c r="C250" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D250" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E250" t="str">
         <f t="shared" si="19"/>
         <v>DETALLE</v>
       </c>
       <c r="G250" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/chef.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Chef&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>150</v>
+      </c>
+      <c r="C251" t="s">
+        <v>205</v>
+      </c>
+      <c r="D251" t="s">
+        <v>225</v>
+      </c>
+      <c r="E251" t="str">
+        <f t="shared" si="19"/>
+        <v>DETALLE</v>
+      </c>
+      <c r="G251" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/puppet.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Puppet&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>150</v>
+      </c>
+      <c r="C252" t="s">
+        <v>353</v>
+      </c>
+      <c r="D252" t="s">
+        <v>359</v>
+      </c>
+      <c r="E252" t="str">
+        <f t="shared" si="19"/>
+        <v>DETALLE</v>
+      </c>
+      <c r="G252" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;li&gt;&lt;figure&gt;&lt;div class="image"&gt;&lt;img src="web/images/logos/terraform.png" alt="img01"/&gt;&lt;/div&gt;&lt;figcaption&gt;&lt;h3&gt;Terraform&lt;/h3&gt;&lt;p&gt;&lt;/p&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="clearfix"&gt;&lt;/span&gt;</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G251" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G252" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G253" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G254" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G255" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G256" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G257" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G258" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G259" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G260" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G261" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G262" t="str">
-        <f t="shared" ref="G262:G268" si="20">IF(E262="CABECERA",CONCATENATE(IF(D262&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D262),""),SUBSTITUTE($G$2,"[CABECERA]",C262)),IF(E262="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D262&lt;&gt;"",D262,"transparent.png")),"[DETALLE]",C262),"[DESCRIPCION]",F262),"[EXPERT]",IF(A262="EXPERT",$G$4,"")),IF(E263&lt;&gt;"DETALLE",$G$5,"")),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G263" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G263:G270" si="20">IF(E263="CABECERA",CONCATENATE(IF(D263&lt;&gt;"",SUBSTITUTE($G$1,"[SMALL-DIALOG]",D263),""),SUBSTITUTE($G$2,"[CABECERA]",C263)),IF(E263="DETALLE",CONCATENATE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$3,"[FICHERO]",IF(D263&lt;&gt;"",D263,"transparent.png")),"[DETALLE]",C263),"[DESCRIPCION]",F263),"[EXPERT]",IF(A263="EXPERT",$G$4,"")),IF(E264&lt;&gt;"DETALLE",$G$5,"")),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G264" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G265" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G266" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G267" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G268" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G269" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G270" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6167,7 +6217,7 @@
   <sortState ref="A7:G31">
     <sortCondition ref="C7:C31"/>
   </sortState>
-  <conditionalFormatting sqref="B50:B53 B44:B48 B56:B62">
+  <conditionalFormatting sqref="B51:B54 B45:B49 B57:B63">
     <cfRule type="iconSet" priority="43">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6176,7 +6226,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B76">
+  <conditionalFormatting sqref="B72:B77">
     <cfRule type="iconSet" priority="42">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6185,7 +6235,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B84:B85">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6194,7 +6244,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
+  <conditionalFormatting sqref="B128">
     <cfRule type="iconSet" priority="33">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6203,7 +6253,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B164:B168">
+  <conditionalFormatting sqref="B166:B170">
     <cfRule type="iconSet" priority="28">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6212,7 +6262,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B173:B181">
+  <conditionalFormatting sqref="B175:B183">
     <cfRule type="iconSet" priority="27">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6221,7 +6271,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B197">
+  <conditionalFormatting sqref="B199">
     <cfRule type="iconSet" priority="25">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6230,7 +6280,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B205:B207">
+  <conditionalFormatting sqref="B207:B209">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6239,7 +6289,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B221:B222">
+  <conditionalFormatting sqref="B223:B224">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6248,7 +6298,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B224">
+  <conditionalFormatting sqref="B226">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6257,7 +6307,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B225:B226">
+  <conditionalFormatting sqref="B227:B228">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6266,7 +6316,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B227:B228">
+  <conditionalFormatting sqref="B229:B230">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6275,7 +6325,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B223">
+  <conditionalFormatting sqref="B225">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6284,7 +6334,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B232">
+  <conditionalFormatting sqref="B234">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6293,7 +6343,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B233:B234">
+  <conditionalFormatting sqref="B235:B236">
     <cfRule type="iconSet" priority="83">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6320,7 +6370,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B82 B84:B94">
+  <conditionalFormatting sqref="B79:B83 B86:B96">
     <cfRule type="iconSet" priority="166">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6329,7 +6379,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B106">
+  <conditionalFormatting sqref="B107:B108">
     <cfRule type="iconSet" priority="173">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6338,7 +6388,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B133 B123:B125">
+  <conditionalFormatting sqref="B129:B135 B125:B127">
     <cfRule type="iconSet" priority="185">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6347,7 +6397,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B142:B143">
+  <conditionalFormatting sqref="B144:B145">
     <cfRule type="iconSet" priority="197">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6356,7 +6406,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B145:B151">
+  <conditionalFormatting sqref="B147:B153">
     <cfRule type="iconSet" priority="204">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6365,7 +6415,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B184:B191 B194:B196">
+  <conditionalFormatting sqref="B186:B193 B196:B198">
     <cfRule type="iconSet" priority="221">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6374,7 +6424,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B214:B219 B212 B198:B201">
+  <conditionalFormatting sqref="B216:B221 B214 B200:B203">
     <cfRule type="iconSet" priority="230">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6383,7 +6433,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B229">
+  <conditionalFormatting sqref="B231">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6392,7 +6442,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B235:B240">
+  <conditionalFormatting sqref="B237:B242">
     <cfRule type="iconSet" priority="231">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6401,7 +6451,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B230">
+  <conditionalFormatting sqref="B232">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6410,7 +6460,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B68">
+  <conditionalFormatting sqref="B66:B69">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6419,7 +6469,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B101">
+  <conditionalFormatting sqref="B97:B103">
     <cfRule type="iconSet" priority="245">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6437,7 +6487,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B39">
+  <conditionalFormatting sqref="B37:B40">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6446,7 +6496,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B36 B40:B42">
+  <conditionalFormatting sqref="B33:B36 B41:B43">
     <cfRule type="iconSet" priority="284">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6455,7 +6505,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B107 B104 B22">
+  <conditionalFormatting sqref="B109 B106 B22">
     <cfRule type="iconSet" priority="291">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6464,7 +6514,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B117">
+  <conditionalFormatting sqref="B110:B119">
     <cfRule type="iconSet" priority="298">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6473,7 +6523,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B118:B120">
+  <conditionalFormatting sqref="B120:B122">
     <cfRule type="iconSet" priority="299">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6482,7 +6532,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B139">
+  <conditionalFormatting sqref="B137:B141">
     <cfRule type="iconSet" priority="300">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6491,7 +6541,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B154:B161">
+  <conditionalFormatting sqref="B156:B163">
     <cfRule type="iconSet" priority="301">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6500,7 +6550,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B182 B169:B170">
+  <conditionalFormatting sqref="B184 B171:B172">
     <cfRule type="iconSet" priority="302">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6509,7 +6559,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B203:B204">
+  <conditionalFormatting sqref="B205:B206">
     <cfRule type="iconSet" priority="303">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6518,7 +6568,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B210:B211">
+  <conditionalFormatting sqref="B212:B213">
     <cfRule type="iconSet" priority="304">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6527,7 +6577,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B243:B244">
+  <conditionalFormatting sqref="B245:B246">
     <cfRule type="iconSet" priority="307">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -6536,7 +6586,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B247:B250">
+  <conditionalFormatting sqref="B249:B252">
     <cfRule type="iconSet" priority="308">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
